--- a/Priming/Jianti1Practice.xlsx
+++ b/Priming/Jianti1Practice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericpelzl/Desktop/CBSLDT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericpelzl/Documents/GitHub/cbs592/Priming/psychopy/Jianti1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6B3813-D5AB-B543-AEF7-E2AB87197156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD1F3F8-12DE-2C40-BA29-D92498459272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{23BFEEAD-3FD8-204C-BA34-CD36C4A1FFC3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>广告</t>
   </si>
@@ -100,10 +100,7 @@
     <t>condition</t>
   </si>
   <si>
-    <t>wrd</t>
-  </si>
-  <si>
-    <t>non</t>
+    <t>practice</t>
   </si>
 </sst>
 </file>
@@ -475,7 +472,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -510,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17">
@@ -521,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
@@ -554,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17">
@@ -565,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17">
@@ -576,7 +573,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17">
